--- a/DataFileSamples/Sedimentary/Clastic.xlsx
+++ b/DataFileSamples/Sedimentary/Clastic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoPyTool/DataFileSamples/Ohters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\GeoPyTool\DataFileSamples\Sedimentary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F1B9E5-7F74-4337-A38E-AF1876F8C889}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="18150" yWindow="2175" windowWidth="12150" windowHeight="20955" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="你的数据" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="250">
   <si>
     <t>﻿Suites</t>
   </si>
@@ -680,9 +681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E3d2l</t>
-  </si>
-  <si>
     <t>SQD2</t>
   </si>
   <si>
@@ -723,12 +721,107 @@
   <si>
     <t>Silt</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3d2l1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3d2l2</t>
+  </si>
+  <si>
+    <t>E3d2l3</t>
+  </si>
+  <si>
+    <t>E3d2l4</t>
+  </si>
+  <si>
+    <t>E3d2l5</t>
+  </si>
+  <si>
+    <t>E3d2l6</t>
+  </si>
+  <si>
+    <t>E3d2l7</t>
+  </si>
+  <si>
+    <t>E3d2l8</t>
+  </si>
+  <si>
+    <t>E3d2l9</t>
+  </si>
+  <si>
+    <t>E3d2l10</t>
+  </si>
+  <si>
+    <t>E3d2l11</t>
+  </si>
+  <si>
+    <t>E3d2l12</t>
+  </si>
+  <si>
+    <t>E3d2l13</t>
+  </si>
+  <si>
+    <t>E3d2l14</t>
+  </si>
+  <si>
+    <t>E3d2l15</t>
+  </si>
+  <si>
+    <t>E3d2l16</t>
+  </si>
+  <si>
+    <t>E3d2l17</t>
+  </si>
+  <si>
+    <t>E3d2l18</t>
+  </si>
+  <si>
+    <t>E3d2l19</t>
+  </si>
+  <si>
+    <t>E3d2l20</t>
+  </si>
+  <si>
+    <t>E3d2l21</t>
+  </si>
+  <si>
+    <t>E3d2l22</t>
+  </si>
+  <si>
+    <t>E3d2l23</t>
+  </si>
+  <si>
+    <t>E3d2l24</t>
+  </si>
+  <si>
+    <t>E3d2l25</t>
+  </si>
+  <si>
+    <t>E3d2l26</t>
+  </si>
+  <si>
+    <t>E3d2l27</t>
+  </si>
+  <si>
+    <t>E3d2l28</t>
+  </si>
+  <si>
+    <t>E3d2l29</t>
+  </si>
+  <si>
+    <t>E3d2l30</t>
+  </si>
+  <si>
+    <t>Index_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -964,10 +1057,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
@@ -1341,33 +1434,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="32.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F1" s="5" t="s">
         <v>176</v>
       </c>
@@ -1388,7 +1483,7 @@
       </c>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="10">
         <v>60</v>
       </c>
@@ -1399,10 +1494,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>182</v>
@@ -1423,10 +1518,10 @@
         <v>0.4</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="10">
         <v>44</v>
       </c>
@@ -1438,7 +1533,7 @@
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="9" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>182</v>
@@ -1459,10 +1554,10 @@
         <v>0.4</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="10">
         <v>62.6</v>
       </c>
@@ -1474,7 +1569,7 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="9" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>182</v>
@@ -1495,10 +1590,10 @@
         <v>0.4</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="10">
         <v>67.7</v>
       </c>
@@ -1510,7 +1605,7 @@
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="9" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>182</v>
@@ -1531,10 +1626,10 @@
         <v>0.4</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="10">
         <v>66.599999999999994</v>
       </c>
@@ -1546,7 +1641,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="9" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>182</v>
@@ -1567,10 +1662,10 @@
         <v>0.4</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="11">
         <v>67.5</v>
       </c>
@@ -1582,7 +1677,7 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="9" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>182</v>
@@ -1603,10 +1698,10 @@
         <v>0.4</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="11">
         <v>59.5</v>
       </c>
@@ -1618,7 +1713,7 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="9" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>182</v>
@@ -1639,10 +1734,10 @@
         <v>0.4</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="12">
         <v>69.8</v>
       </c>
@@ -1654,7 +1749,7 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="9" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>182</v>
@@ -1675,10 +1770,10 @@
         <v>0.4</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="12">
         <v>59.8</v>
       </c>
@@ -1690,7 +1785,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="9" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>182</v>
@@ -1711,10 +1806,10 @@
         <v>0.5</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="12">
         <v>62.6</v>
       </c>
@@ -1726,7 +1821,7 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="9" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>182</v>
@@ -1747,10 +1842,10 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="12">
         <v>61.3</v>
       </c>
@@ -1762,7 +1857,7 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="9" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>182</v>
@@ -1783,10 +1878,10 @@
         <v>0.5</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="12">
         <v>58.3</v>
       </c>
@@ -1798,7 +1893,7 @@
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="9" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>182</v>
@@ -1819,10 +1914,10 @@
         <v>0.5</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="13">
         <v>66.7</v>
       </c>
@@ -1834,7 +1929,7 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="9" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>182</v>
@@ -1855,10 +1950,10 @@
         <v>0.5</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="13">
         <v>51.5</v>
       </c>
@@ -1870,7 +1965,7 @@
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="9" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>182</v>
@@ -1891,10 +1986,10 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="13">
         <v>74.3</v>
       </c>
@@ -1906,7 +2001,7 @@
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="9" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>182</v>
@@ -1927,10 +2022,10 @@
         <v>1.5</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="13">
         <v>50</v>
       </c>
@@ -1941,10 +2036,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>185</v>
@@ -1965,10 +2060,10 @@
         <v>2.5</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="13">
         <v>54.4</v>
       </c>
@@ -1979,8 +2074,8 @@
         <v>27.2</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="14" t="s">
-        <v>208</v>
+      <c r="E18" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>185</v>
@@ -2001,10 +2096,10 @@
         <v>3.5</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="13">
         <v>80.3</v>
       </c>
@@ -2015,8 +2110,8 @@
         <v>7.9</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="14" t="s">
-        <v>208</v>
+      <c r="E19" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>185</v>
@@ -2037,10 +2132,10 @@
         <v>4.5</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="13">
         <v>51.3</v>
       </c>
@@ -2051,8 +2146,8 @@
         <v>21.6</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="14" t="s">
-        <v>208</v>
+      <c r="E20" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>185</v>
@@ -2073,10 +2168,10 @@
         <v>5.5</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="13">
         <v>56.4</v>
       </c>
@@ -2087,8 +2182,8 @@
         <v>15.3</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="14" t="s">
-        <v>208</v>
+      <c r="E21" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>185</v>
@@ -2109,10 +2204,10 @@
         <v>6.5</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="13">
         <v>58.3</v>
       </c>
@@ -2123,16 +2218,16 @@
         <v>21.7</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H22" s="2">
         <v>50</v>
@@ -2147,10 +2242,10 @@
         <v>7.5</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="13">
         <v>66.7</v>
       </c>
@@ -2161,14 +2256,14 @@
         <v>15.3</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="15" t="s">
-        <v>208</v>
+      <c r="E23" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H23" s="2">
         <v>50</v>
@@ -2183,10 +2278,10 @@
         <v>8.5</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15">
       <c r="A24" s="13">
         <v>76</v>
       </c>
@@ -2197,14 +2292,14 @@
         <v>12</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="15" t="s">
-        <v>208</v>
+      <c r="E24" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H24" s="2">
         <v>50</v>
@@ -2219,10 +2314,10 @@
         <v>0.5</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15">
       <c r="A25" s="13">
         <v>71.900000000000006</v>
       </c>
@@ -2233,14 +2328,14 @@
         <v>14.6</v>
       </c>
       <c r="D25" s="20"/>
-      <c r="E25" s="15" t="s">
-        <v>208</v>
+      <c r="E25" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" s="2">
         <v>50</v>
@@ -2255,10 +2350,10 @@
         <v>0.5</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15">
       <c r="A26" s="13">
         <v>70</v>
       </c>
@@ -2269,14 +2364,14 @@
         <v>12.5</v>
       </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="15" t="s">
-        <v>208</v>
+      <c r="E26" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H26" s="2">
         <v>50</v>
@@ -2291,10 +2386,10 @@
         <v>0.5</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="13">
         <v>69.8</v>
       </c>
@@ -2305,14 +2400,14 @@
         <v>19.2</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="15" t="s">
-        <v>208</v>
+      <c r="E27" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H27" s="2">
         <v>50</v>
@@ -2327,10 +2422,10 @@
         <v>0.5</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="13">
         <v>51.8</v>
       </c>
@@ -2341,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>188</v>
@@ -2365,10 +2460,10 @@
         <v>0.5</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="13">
         <v>40.799999999999997</v>
       </c>
@@ -2379,8 +2474,8 @@
         <v>0</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="16" t="s">
-        <v>208</v>
+      <c r="E29" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>188</v>
@@ -2401,10 +2496,10 @@
         <v>0.5</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15">
       <c r="A30" s="13">
         <v>61</v>
       </c>
@@ -2415,8 +2510,8 @@
         <v>0</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="16" t="s">
-        <v>208</v>
+      <c r="E30" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>188</v>
@@ -2437,10 +2532,10 @@
         <v>1.5</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15">
       <c r="A31" s="13">
         <v>40</v>
       </c>
@@ -2451,8 +2546,8 @@
         <v>0</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="16" t="s">
-        <v>208</v>
+      <c r="E31" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>188</v>
@@ -2473,7 +2568,7 @@
         <v>2.5</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2484,20 +2579,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.5" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
@@ -4475,7 +4570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14" customHeight="1">
+    <row r="43" spans="1:15" ht="14.1" customHeight="1">
       <c r="A43" t="s">
         <v>86</v>
       </c>
